--- a/test-uredjaji-za-uvoz.xlsx
+++ b/test-uredjaji-za-uvoz.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,19 +427,19 @@
         <v>Darko Bogdan</v>
       </c>
       <c r="B2" t="str">
-        <v>frižider</v>
+        <v>Sudo mašina</v>
       </c>
       <c r="C2" t="str">
         <v>Samsung</v>
       </c>
       <c r="D2" t="str">
-        <v>RF50K</v>
+        <v>DW50K</v>
       </c>
       <c r="E2" t="str">
         <v>12345</v>
       </c>
       <c r="F2" t="str">
-        <v>redovan pregled</v>
+        <v>ne pere kako treba</v>
       </c>
     </row>
     <row r="3">
@@ -447,19 +447,19 @@
         <v>Božidar Lakovic</v>
       </c>
       <c r="B3" t="str">
-        <v>frižider</v>
+        <v>Veš mašina</v>
       </c>
       <c r="C3" t="str">
         <v>LG</v>
       </c>
       <c r="D3" t="str">
-        <v>GR-B459</v>
+        <v>WM-5000</v>
       </c>
       <c r="E3" t="str">
         <v>67890</v>
       </c>
       <c r="F3" t="str">
-        <v>potrebna servis</v>
+        <v>ne centrifugira</v>
       </c>
     </row>
     <row r="4">
@@ -467,19 +467,19 @@
         <v>Ivan Rabasevic</v>
       </c>
       <c r="B4" t="str">
-        <v>frižider</v>
+        <v>Kombinovana veš mašina</v>
       </c>
       <c r="C4" t="str">
         <v>Bosch</v>
       </c>
       <c r="D4" t="str">
-        <v>KGV</v>
+        <v>WKD-300</v>
       </c>
       <c r="E4" t="str">
         <v>54321</v>
       </c>
       <c r="F4" t="str">
-        <v>kvar kompresora</v>
+        <v>ne suši</v>
       </c>
     </row>
     <row r="5">
@@ -487,19 +487,19 @@
         <v>Nikola Kuzmanović</v>
       </c>
       <c r="B5" t="str">
-        <v>frižider</v>
+        <v>Ugradna sudo mašina</v>
       </c>
       <c r="C5" t="str">
         <v>Whirlpool</v>
       </c>
       <c r="D5" t="str">
-        <v>WBA</v>
+        <v>WDI-60</v>
       </c>
       <c r="E5" t="str">
         <v>98765</v>
       </c>
       <c r="F5" t="str">
-        <v>ne hladi</v>
+        <v>ne radi</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>Milica Kuzmanović</v>
       </c>
       <c r="B6" t="str">
-        <v>frižider</v>
+        <v>Frižider</v>
       </c>
       <c r="C6" t="str">
         <v>Candy</v>
@@ -519,12 +519,32 @@
         <v>13579</v>
       </c>
       <c r="F6" t="str">
-        <v>promena filtera</v>
+        <v>ne hladi</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Marko Petrović</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Šporet</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Gorenje</v>
+      </c>
+      <c r="D7" t="str">
+        <v>G-500</v>
+      </c>
+      <c r="E7" t="str">
+        <v>11111</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ne radi ploca</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-uredjaji-za-uvoz.xlsx
+++ b/test-uredjaji-za-uvoz.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,9 +542,29 @@
         <v>ne radi ploca</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ana Milic</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Kombinovan frižider</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="D8" t="str">
+        <v>RF-850</v>
+      </c>
+      <c r="E8" t="str">
+        <v>22222</v>
+      </c>
+      <c r="F8" t="str">
+        <v>ne hladi zamrzivač</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>